--- a/cancerHome2/tf/src/test/resources/Validation rules with exact Test data(Final draft).xlsx
+++ b/cancerHome2/tf/src/test/resources/Validation rules with exact Test data(Final draft).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7515" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="9" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="538">
   <si>
     <t>Код МКБ-10</t>
   </si>
@@ -3175,6 +3175,15 @@
   <si>
     <t>100</t>
   </si>
+  <si>
+    <t>3061198B123PB7</t>
+  </si>
+  <si>
+    <t>Картавый</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
 </sst>
 </file>
 
@@ -4067,7 +4076,7 @@
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4277,15 +4286,33 @@
       <c r="A8" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
+      <c r="B8" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="H8" s="52">
+        <v>67</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="J8" s="51">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -4379,7 +4406,7 @@
     <sheetView topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="AD24" sqref="AD24"/>
+      <selection pane="bottomLeft" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28911,7 +28938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG355"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
